--- a/medicine/Enfance/Michel_Jouin/Michel_Jouin.xlsx
+++ b/medicine/Enfance/Michel_Jouin/Michel_Jouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Jouin, né le 29 décembre 1936 à Saint-Brice-sous-Forêt[1] (Seine-et-Oise) et mort le 16 décembre 2018[2] à Montélimar (Drôme), est un illustrateur et un affichiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Jouin, né le 29 décembre 1936 à Saint-Brice-sous-Forêt (Seine-et-Oise) et mort le 16 décembre 2018 à Montélimar (Drôme), est un illustrateur et un affichiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Jouin commence comme dessinateur dans la publicité et devient directeur artistique dans plusieurs agences. Dans les années 1960, il se lance dans l'édition puis, dans les années 1980, se consacre aux affiches de cinéma.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Affiches de cinéma
-1983 : Star Wars, épisode VI : Le Retour du Jedi (Return of the Jedi) de Richard Marquand
+          <t>Affiches de cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1983 : Star Wars, épisode VI : Le Retour du Jedi (Return of the Jedi) de Richard Marquand
 1984 : Indiana Jones et le Temple maudit (Indiana Jones and the Temple of Doom) de Steven Spielberg
 1984 : Supergirl de Jeannot Szwarc
 1984 : Starfighter (The Last Starfighter) de Nick Castle
@@ -557,9 +576,43 @@
 1988 : Cinema Paradiso (Nuovo cinema Paradiso) de Giuseppe Tornatore
 1989 : Leviathan de George Pan Cosmatos
 1990 : La voce della luna de Federico Fellini
-1995 : Les Misérables de Claude Lelouch
-Illustrations de romans jeunesse
-Michel Manoll, Saint Exupéry, prince des pilotes — coll. « Super 1000 », G.P., 1963
+1995 : Les Misérables de Claude Lelouch</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Jouin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Jouin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations de romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Michel Manoll, Saint Exupéry, prince des pilotes — coll. « Super 1000 », G.P., 1963
 Paul Brickhill, Les briseurs de barrage — coll. « Super 1000 », G.P., 1965
 Jacqueline Cervon, Sélim, le petit marchand de bonheur — coll. « Rouge et Or Dauphine », G.P., 1966
 Jacqueline Cervon, Quand la terre trembla à Skopje — coll. « Super 1000 », G.P., 1966
